--- a/EssilorLuxottica Projects/LUX - 7.0 - Retrieve SAP Bank Files/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.0 - Retrieve SAP Bank Files/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.0_Running Bank Files in SAP\LUX - 7.0 - Retrieve SAP Bank Files\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C47F49C-F23B-4F04-9A11-D728E33F9FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CED54DF-B5AC-4163-9E5A-143489565A3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>LUX-7.0-LoadSAPBankFiles</t>
+  </si>
+  <si>
+    <t>\\myemdrive_server.luxgroup.net\MyEMDrive\EYEMED\ProductionData\SAP Auto Cash Application\Daily SAP Bank Files - ODS\</t>
+  </si>
+  <si>
+    <t>strSAPBankFilesPathPROD</t>
+  </si>
+  <si>
+    <t>strSAPBankFilesPathDEV</t>
+  </si>
+  <si>
+    <t>Ess.LUX-7.0_SAPBankFilesPath</t>
   </si>
 </sst>
 </file>
@@ -585,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -665,53 +677,60 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="3" t="b">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1699,11 +1718,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{A0D3C817-7406-4999-B37C-0E3CC7281B95}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{3A2548C3-89A1-45E0-8459-8EC39F84BBD2}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{D9A36A6B-E724-4181-836A-2E8650C89A1F}"/>
+    <hyperlink ref="B12" r:id="rId2" xr:uid="{3A2548C3-89A1-45E0-8459-8EC39F84BBD2}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{D9A36A6B-E724-4181-836A-2E8650C89A1F}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{DDE99FF6-0356-406B-A2D8-66A5B2B7EF97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2923,7 +2943,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2965,7 +2987,14 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
